--- a/tests/Fixtures/Template_Mahasiswa.xlsx
+++ b/tests/Fixtures/Template_Mahasiswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pribadi\Project\Laravel\Sirepo-JTI-Fullstack\src\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pribadi\Project\Laravel\Sirepo-JTI-Fullstack\src\cypress\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129CCB2F-EBE6-4822-B9EF-FFB8B20D581C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90708BA-472F-4E2E-B742-350240BB526E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{6330A468-C46E-4837-9FDC-8153514FB9C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Email</t>
   </si>
@@ -49,6 +49,42 @@
   </si>
   <si>
     <t>Nama</t>
+  </si>
+  <si>
+    <t>test_import_one</t>
+  </si>
+  <si>
+    <t>one@gmail.com</t>
+  </si>
+  <si>
+    <t>userpass</t>
+  </si>
+  <si>
+    <t>test_import_2</t>
+  </si>
+  <si>
+    <t>test_import_1</t>
+  </si>
+  <si>
+    <t>test_import_3</t>
+  </si>
+  <si>
+    <t>test_import_two</t>
+  </si>
+  <si>
+    <t>test_import_three</t>
+  </si>
+  <si>
+    <t>two@gmail.com</t>
+  </si>
+  <si>
+    <t>three@gmail.com</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
   <si>
     <t>Nim</t>
@@ -58,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +114,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -96,15 +140,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2181D031-4C76-4D57-85CD-DCE437960AD5}"/>
   </cellStyles>
@@ -418,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA401F-BCA9-495D-81F0-12E475EA1559}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -439,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -454,7 +501,73 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0B3CFAE7-D4F6-4AB8-B37C-1158FA4CFE09}"/>
+    <hyperlink ref="C3:C4" r:id="rId2" display="one@gmail.com" xr:uid="{67874C02-025B-4965-AFDB-341C37FCE998}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{79FE83C8-EE22-4F10-968F-CC642817EE44}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{C47308E5-AD5C-45B8-A3B6-B79FC3F31B8D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>